--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.3536155</v>
+        <v>26.2486765</v>
       </c>
       <c r="H2">
-        <v>22.707231</v>
+        <v>52.497353</v>
       </c>
       <c r="I2">
-        <v>0.1610666555281549</v>
+        <v>0.2989743364726374</v>
       </c>
       <c r="J2">
-        <v>0.1379309236788346</v>
+        <v>0.286867332742448</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5025675000000001</v>
+        <v>4.4557</v>
       </c>
       <c r="N2">
-        <v>1.005135</v>
+        <v>8.9114</v>
       </c>
       <c r="O2">
-        <v>0.002717219326525538</v>
+        <v>0.02359296635235565</v>
       </c>
       <c r="P2">
-        <v>0.001814075008651434</v>
+        <v>0.0158997862915566</v>
       </c>
       <c r="Q2">
-        <v>5.705958157796251</v>
+        <v>116.95622788105</v>
       </c>
       <c r="R2">
-        <v>22.823832631185</v>
+        <v>467.8249115242</v>
       </c>
       <c r="S2">
-        <v>0.0004376534292599341</v>
+        <v>0.007053691460616789</v>
       </c>
       <c r="T2">
-        <v>0.0002502170415659823</v>
+        <v>0.004561129284633782</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.3536155</v>
+        <v>26.2486765</v>
       </c>
       <c r="H3">
-        <v>22.707231</v>
+        <v>52.497353</v>
       </c>
       <c r="I3">
-        <v>0.1610666555281549</v>
+        <v>0.2989743364726374</v>
       </c>
       <c r="J3">
-        <v>0.1379309236788346</v>
+        <v>0.286867332742448</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>548.139267</v>
       </c>
       <c r="O3">
-        <v>0.9878703589865653</v>
+        <v>0.9674672354314614</v>
       </c>
       <c r="P3">
-        <v>0.9892857631315353</v>
+        <v>0.9779941651491894</v>
       </c>
       <c r="Q3">
-        <v>2074.454159323279</v>
+        <v>4795.976765476708</v>
       </c>
       <c r="R3">
-        <v>12446.72495593968</v>
+        <v>28775.86059286026</v>
       </c>
       <c r="S3">
-        <v>0.1591129748173639</v>
+        <v>0.289247874772138</v>
       </c>
       <c r="T3">
-        <v>0.1364530990910535</v>
+        <v>0.2805545775940251</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.3536155</v>
+        <v>26.2486765</v>
       </c>
       <c r="H4">
-        <v>22.707231</v>
+        <v>52.497353</v>
       </c>
       <c r="I4">
-        <v>0.1610666555281549</v>
+        <v>0.2989743364726374</v>
       </c>
       <c r="J4">
-        <v>0.1379309236788346</v>
+        <v>0.286867332742448</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.291303</v>
+        <v>0.03688933333333334</v>
       </c>
       <c r="N4">
-        <v>0.582606</v>
+        <v>0.110668</v>
       </c>
       <c r="O4">
-        <v>0.001574980756763756</v>
+        <v>0.0001953293085472911</v>
       </c>
       <c r="P4">
-        <v>0.001051491575251461</v>
+        <v>0.0001974546703451743</v>
       </c>
       <c r="Q4">
-        <v>3.3073422559965</v>
+        <v>0.9682961769673335</v>
       </c>
       <c r="R4">
-        <v>13.229369023986</v>
+        <v>5.809777061804001</v>
       </c>
       <c r="S4">
-        <v>0.0002536768830131406</v>
+        <v>5.839845041658541E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001450332042149469</v>
+        <v>5.664329461945949E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.3536155</v>
+        <v>26.2486765</v>
       </c>
       <c r="H5">
-        <v>22.707231</v>
+        <v>52.497353</v>
       </c>
       <c r="I5">
-        <v>0.1610666555281549</v>
+        <v>0.2989743364726374</v>
       </c>
       <c r="J5">
-        <v>0.1379309236788346</v>
+        <v>0.286867332742448</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.297988666666667</v>
+        <v>1.642759</v>
       </c>
       <c r="N5">
-        <v>3.893966</v>
+        <v>3.285518</v>
       </c>
       <c r="O5">
-        <v>0.007017803361096332</v>
+        <v>0.008698421754613059</v>
       </c>
       <c r="P5">
-        <v>0.007027858352498311</v>
+        <v>0.005862045700682549</v>
       </c>
       <c r="Q5">
-        <v>14.736864244691</v>
+        <v>43.1202495584635</v>
       </c>
       <c r="R5">
-        <v>88.42118546814601</v>
+        <v>172.480998233854</v>
       </c>
       <c r="S5">
-        <v>0.001130334116526031</v>
+        <v>0.002600604872444593</v>
       </c>
       <c r="T5">
-        <v>0.0009693589940441052</v>
+        <v>0.001681629414569137</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.3536155</v>
+        <v>26.2486765</v>
       </c>
       <c r="H6">
-        <v>22.707231</v>
+        <v>52.497353</v>
       </c>
       <c r="I6">
-        <v>0.1610666555281549</v>
+        <v>0.2989743364726374</v>
       </c>
       <c r="J6">
-        <v>0.1379309236788346</v>
+        <v>0.286867332742448</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1515973333333333</v>
+        <v>0.008696333333333334</v>
       </c>
       <c r="N6">
-        <v>0.454792</v>
+        <v>0.026089</v>
       </c>
       <c r="O6">
-        <v>0.000819637569049068</v>
+        <v>4.604715302246609E-05</v>
       </c>
       <c r="P6">
-        <v>0.0008208119320634572</v>
+        <v>4.654818822636402E-05</v>
       </c>
       <c r="Q6">
-        <v>1.721177833492</v>
+        <v>0.2282672404028334</v>
       </c>
       <c r="R6">
-        <v>10.327067000952</v>
+        <v>1.369603442417</v>
       </c>
       <c r="S6">
-        <v>0.0001320162819919605</v>
+        <v>1.37669170213458E-05</v>
       </c>
       <c r="T6">
-        <v>0.0001132153479561215</v>
+        <v>1.335315460049046E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>4.831455</v>
       </c>
       <c r="I7">
-        <v>0.02284694533897687</v>
+        <v>0.01834354140766432</v>
       </c>
       <c r="J7">
-        <v>0.02934779017585738</v>
+        <v>0.02640107605263762</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5025675000000001</v>
+        <v>4.4557</v>
       </c>
       <c r="N7">
-        <v>1.005135</v>
+        <v>8.9114</v>
       </c>
       <c r="O7">
-        <v>0.002717219326525538</v>
+        <v>0.02359296635235565</v>
       </c>
       <c r="P7">
-        <v>0.001814075008651434</v>
+        <v>0.0158997862915566</v>
       </c>
       <c r="Q7">
-        <v>0.8093774202375</v>
+        <v>7.1758380145</v>
       </c>
       <c r="R7">
-        <v>4.856264521425</v>
+        <v>43.055028087</v>
       </c>
       <c r="S7">
-        <v>6.208016142714052E-05</v>
+        <v>0.0004327785552140669</v>
       </c>
       <c r="T7">
-        <v>5.323909271716895E-05</v>
+        <v>0.000419771467104071</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>4.831455</v>
       </c>
       <c r="I8">
-        <v>0.02284694533897687</v>
+        <v>0.01834354140766432</v>
       </c>
       <c r="J8">
-        <v>0.02934779017585738</v>
+        <v>0.02640107605263762</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,10 +939,10 @@
         <v>548.139267</v>
       </c>
       <c r="O8">
-        <v>0.9878703589865653</v>
+        <v>0.9674672354314614</v>
       </c>
       <c r="P8">
-        <v>0.9892857631315353</v>
+        <v>0.9779941651491894</v>
       </c>
       <c r="Q8">
         <v>294.256689138165</v>
@@ -951,10 +951,10 @@
         <v>2648.310202243485</v>
       </c>
       <c r="S8">
-        <v>0.02256982009376152</v>
+        <v>0.01774677529369554</v>
       </c>
       <c r="T8">
-        <v>0.02903335100034724</v>
+        <v>0.02582009833313959</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>4.831455</v>
       </c>
       <c r="I9">
-        <v>0.02284694533897687</v>
+        <v>0.01834354140766432</v>
       </c>
       <c r="J9">
-        <v>0.02934779017585738</v>
+        <v>0.02640107605263762</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.291303</v>
+        <v>0.03688933333333334</v>
       </c>
       <c r="N9">
-        <v>0.582606</v>
+        <v>0.110668</v>
       </c>
       <c r="O9">
-        <v>0.001574980756763756</v>
+        <v>0.0001953293085472911</v>
       </c>
       <c r="P9">
-        <v>0.001051491575251461</v>
+        <v>0.0001974546703451743</v>
       </c>
       <c r="Q9">
-        <v>0.469139111955</v>
+        <v>0.05940971799333333</v>
       </c>
       <c r="R9">
-        <v>2.81483467173</v>
+        <v>0.5346874619400001</v>
       </c>
       <c r="S9">
-        <v>3.598349925972195E-05</v>
+        <v>3.583031259467675E-06</v>
       </c>
       <c r="T9">
-        <v>3.085895412216162E-05</v>
+        <v>5.213015768731437E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>4.831455</v>
       </c>
       <c r="I10">
-        <v>0.02284694533897687</v>
+        <v>0.01834354140766432</v>
       </c>
       <c r="J10">
-        <v>0.02934779017585738</v>
+        <v>0.02640107605263762</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.297988666666667</v>
+        <v>1.642759</v>
       </c>
       <c r="N10">
-        <v>3.893966</v>
+        <v>3.285518</v>
       </c>
       <c r="O10">
-        <v>0.007017803361096332</v>
+        <v>0.008698421754613059</v>
       </c>
       <c r="P10">
-        <v>0.007027858352498311</v>
+        <v>0.005862045700682549</v>
       </c>
       <c r="Q10">
-        <v>2.090391277836666</v>
+        <v>2.645638728115</v>
       </c>
       <c r="R10">
-        <v>18.81352150053</v>
+        <v>15.87383236869</v>
       </c>
       <c r="S10">
-        <v>0.0001603353697906561</v>
+        <v>0.0001595598596370728</v>
       </c>
       <c r="T10">
-        <v>0.0002062521123147671</v>
+        <v>0.0001547643143677574</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,40 +1107,40 @@
         <v>4.831455</v>
       </c>
       <c r="I11">
-        <v>0.02284694533897687</v>
+        <v>0.01834354140766432</v>
       </c>
       <c r="J11">
-        <v>0.02934779017585738</v>
+        <v>0.02640107605263762</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.1515973333333333</v>
+        <v>0.008696333333333334</v>
       </c>
       <c r="N11">
-        <v>0.454792</v>
+        <v>0.026089</v>
       </c>
       <c r="O11">
-        <v>0.000819637569049068</v>
+        <v>4.604715302246609E-05</v>
       </c>
       <c r="P11">
-        <v>0.0008208119320634572</v>
+        <v>4.654818822636402E-05</v>
       </c>
       <c r="Q11">
-        <v>0.2441452313733333</v>
+        <v>0.01400531438833333</v>
       </c>
       <c r="R11">
-        <v>2.19730708236</v>
+        <v>0.126047829495</v>
       </c>
       <c r="S11">
-        <v>1.872621473783594E-05</v>
+        <v>8.446678581726621E-07</v>
       </c>
       <c r="T11">
-        <v>2.408901635603844E-05</v>
+        <v>1.228922257476727E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.851026999999999</v>
+        <v>1.524538333333333</v>
       </c>
       <c r="H12">
-        <v>14.553081</v>
+        <v>4.573615</v>
       </c>
       <c r="I12">
-        <v>0.06881849176297883</v>
+        <v>0.0173646026166475</v>
       </c>
       <c r="J12">
-        <v>0.08840003013590246</v>
+        <v>0.02499213124213807</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5025675000000001</v>
+        <v>4.4557</v>
       </c>
       <c r="N12">
-        <v>1.005135</v>
+        <v>8.9114</v>
       </c>
       <c r="O12">
-        <v>0.002717219326525538</v>
+        <v>0.02359296635235565</v>
       </c>
       <c r="P12">
-        <v>0.001814075008651434</v>
+        <v>0.0158997862915566</v>
       </c>
       <c r="Q12">
-        <v>2.4379685118225</v>
+        <v>6.792885451833333</v>
       </c>
       <c r="R12">
-        <v>14.627811070935</v>
+        <v>40.757312711</v>
       </c>
       <c r="S12">
-        <v>0.0001869949358407046</v>
+        <v>0.0004096824852565914</v>
       </c>
       <c r="T12">
-        <v>0.0001603642854335743</v>
+        <v>0.0003973695457205305</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.851026999999999</v>
+        <v>1.524538333333333</v>
       </c>
       <c r="H13">
-        <v>14.553081</v>
+        <v>4.573615</v>
       </c>
       <c r="I13">
-        <v>0.06881849176297883</v>
+        <v>0.0173646026166475</v>
       </c>
       <c r="J13">
-        <v>0.08840003013590246</v>
+        <v>0.02499213124213807</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1249,22 +1249,22 @@
         <v>548.139267</v>
       </c>
       <c r="O13">
-        <v>0.9878703589865653</v>
+        <v>0.9674672354314614</v>
       </c>
       <c r="P13">
-        <v>0.9892857631315353</v>
+        <v>0.9779941651491894</v>
       </c>
       <c r="Q13">
-        <v>886.3461279924029</v>
+        <v>278.553108182245</v>
       </c>
       <c r="R13">
-        <v>7977.115151931626</v>
+        <v>2506.977973640205</v>
       </c>
       <c r="S13">
-        <v>0.06798374816280787</v>
+        <v>0.01679968408789388</v>
       </c>
       <c r="T13">
-        <v>0.08745289127384698</v>
+        <v>0.0244421585294538</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.851026999999999</v>
+        <v>1.524538333333333</v>
       </c>
       <c r="H14">
-        <v>14.553081</v>
+        <v>4.573615</v>
       </c>
       <c r="I14">
-        <v>0.06881849176297883</v>
+        <v>0.0173646026166475</v>
       </c>
       <c r="J14">
-        <v>0.08840003013590246</v>
+        <v>0.02499213124213807</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.291303</v>
+        <v>0.03688933333333334</v>
       </c>
       <c r="N14">
-        <v>0.582606</v>
+        <v>0.110668</v>
       </c>
       <c r="O14">
-        <v>0.001574980756763756</v>
+        <v>0.0001953293085472911</v>
       </c>
       <c r="P14">
-        <v>0.001051491575251461</v>
+        <v>0.0001974546703451743</v>
       </c>
       <c r="Q14">
-        <v>1.413118718181</v>
+        <v>0.05623920275777778</v>
       </c>
       <c r="R14">
-        <v>8.478712309085999</v>
+        <v>0.50615282482</v>
       </c>
       <c r="S14">
-        <v>0.0001083878002361967</v>
+        <v>3.391815822308239E-06</v>
       </c>
       <c r="T14">
-        <v>9.29518869398767E-05</v>
+        <v>4.934813035639705E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.851026999999999</v>
+        <v>1.524538333333333</v>
       </c>
       <c r="H15">
-        <v>14.553081</v>
+        <v>4.573615</v>
       </c>
       <c r="I15">
-        <v>0.06881849176297883</v>
+        <v>0.0173646026166475</v>
       </c>
       <c r="J15">
-        <v>0.08840003013590246</v>
+        <v>0.02499213124213807</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.297988666666667</v>
+        <v>1.642759</v>
       </c>
       <c r="N15">
-        <v>3.893966</v>
+        <v>3.285518</v>
       </c>
       <c r="O15">
-        <v>0.007017803361096332</v>
+        <v>0.008698421754613059</v>
       </c>
       <c r="P15">
-        <v>0.007027858352498311</v>
+        <v>0.005862045700682549</v>
       </c>
       <c r="Q15">
-        <v>6.296578067693999</v>
+        <v>2.504449067928333</v>
       </c>
       <c r="R15">
-        <v>56.669202609246</v>
+        <v>15.02669440757</v>
       </c>
       <c r="S15">
-        <v>0.0004829546427998131</v>
+        <v>0.0001510446371608575</v>
       </c>
       <c r="T15">
-        <v>0.0006212628901517045</v>
+        <v>0.0001465050154988695</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.851026999999999</v>
+        <v>1.524538333333333</v>
       </c>
       <c r="H16">
-        <v>14.553081</v>
+        <v>4.573615</v>
       </c>
       <c r="I16">
-        <v>0.06881849176297883</v>
+        <v>0.0173646026166475</v>
       </c>
       <c r="J16">
-        <v>0.08840003013590246</v>
+        <v>0.02499213124213807</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1515973333333333</v>
+        <v>0.008696333333333334</v>
       </c>
       <c r="N16">
-        <v>0.454792</v>
+        <v>0.026089</v>
       </c>
       <c r="O16">
-        <v>0.000819637569049068</v>
+        <v>4.604715302246609E-05</v>
       </c>
       <c r="P16">
-        <v>0.0008208119320634572</v>
+        <v>4.654818822636402E-05</v>
       </c>
       <c r="Q16">
-        <v>0.7354027571279999</v>
+        <v>0.01325789352611111</v>
       </c>
       <c r="R16">
-        <v>6.618624814152</v>
+        <v>0.119321041735</v>
       </c>
       <c r="S16">
-        <v>5.640622129423127E-05</v>
+        <v>7.995905138630827E-07</v>
       </c>
       <c r="T16">
-        <v>7.255979953031794E-05</v>
+        <v>1.163338429237036E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.4893295</v>
+        <v>54.13637749999999</v>
       </c>
       <c r="H17">
-        <v>70.97865899999999</v>
+        <v>108.272755</v>
       </c>
       <c r="I17">
-        <v>0.5034649631654063</v>
+        <v>0.616617281335869</v>
       </c>
       <c r="J17">
-        <v>0.4311468887313926</v>
+        <v>0.5916472862074882</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5025675000000001</v>
+        <v>4.4557</v>
       </c>
       <c r="N17">
-        <v>1.005135</v>
+        <v>8.9114</v>
       </c>
       <c r="O17">
-        <v>0.002717219326525538</v>
+        <v>0.02359296635235565</v>
       </c>
       <c r="P17">
-        <v>0.001814075008651434</v>
+        <v>0.0158997862915566</v>
       </c>
       <c r="Q17">
-        <v>17.83578360349125</v>
+        <v>241.21545722675</v>
       </c>
       <c r="R17">
-        <v>71.343134413965</v>
+        <v>964.8618289069999</v>
       </c>
       <c r="S17">
-        <v>0.00136802472814151</v>
+        <v>0.01454783077083817</v>
       </c>
       <c r="T17">
-        <v>0.00078213279590544</v>
+        <v>0.009407065410678487</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35.4893295</v>
+        <v>54.13637749999999</v>
       </c>
       <c r="H18">
-        <v>70.97865899999999</v>
+        <v>108.272755</v>
       </c>
       <c r="I18">
-        <v>0.5034649631654063</v>
+        <v>0.616617281335869</v>
       </c>
       <c r="J18">
-        <v>0.4311468887313926</v>
+        <v>0.5916472862074882</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>548.139267</v>
       </c>
       <c r="O18">
-        <v>0.9878703589865653</v>
+        <v>0.9674672354314614</v>
       </c>
       <c r="P18">
-        <v>0.9892857631315353</v>
+        <v>0.9779941651491894</v>
       </c>
       <c r="Q18">
-        <v>6484.365019483825</v>
+        <v>9891.424760295096</v>
       </c>
       <c r="R18">
-        <v>38906.19011690295</v>
+        <v>59348.54856177058</v>
       </c>
       <c r="S18">
-        <v>0.4973581138993678</v>
+        <v>0.5965570164932769</v>
       </c>
       <c r="T18">
-        <v>0.4265274788404229</v>
+        <v>0.5786275937372759</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>35.4893295</v>
+        <v>54.13637749999999</v>
       </c>
       <c r="H19">
-        <v>70.97865899999999</v>
+        <v>108.272755</v>
       </c>
       <c r="I19">
-        <v>0.5034649631654063</v>
+        <v>0.616617281335869</v>
       </c>
       <c r="J19">
-        <v>0.4311468887313926</v>
+        <v>0.5916472862074882</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.291303</v>
+        <v>0.03688933333333334</v>
       </c>
       <c r="N19">
-        <v>0.582606</v>
+        <v>0.110668</v>
       </c>
       <c r="O19">
-        <v>0.001574980756763756</v>
+        <v>0.0001953293085472911</v>
       </c>
       <c r="P19">
-        <v>0.001051491575251461</v>
+        <v>0.0001974546703451743</v>
       </c>
       <c r="Q19">
-        <v>10.3381481513385</v>
+        <v>1.997054875056667</v>
       </c>
       <c r="R19">
-        <v>41.35259260535399</v>
+        <v>11.98232925034</v>
       </c>
       <c r="S19">
-        <v>0.000792947628690288</v>
+        <v>0.0001204434272016458</v>
       </c>
       <c r="T19">
-        <v>0.0004533473211969384</v>
+        <v>0.0001168235198587166</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>35.4893295</v>
+        <v>54.13637749999999</v>
       </c>
       <c r="H20">
-        <v>70.97865899999999</v>
+        <v>108.272755</v>
       </c>
       <c r="I20">
-        <v>0.5034649631654063</v>
+        <v>0.616617281335869</v>
       </c>
       <c r="J20">
-        <v>0.4311468887313926</v>
+        <v>0.5916472862074882</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.297988666666667</v>
+        <v>1.642759</v>
       </c>
       <c r="N20">
-        <v>3.893966</v>
+        <v>3.285518</v>
       </c>
       <c r="O20">
-        <v>0.007017803361096332</v>
+        <v>0.008698421754613059</v>
       </c>
       <c r="P20">
-        <v>0.007027858352498311</v>
+        <v>0.005862045700682549</v>
       </c>
       <c r="Q20">
-        <v>46.064747478599</v>
+        <v>88.93302136552248</v>
       </c>
       <c r="R20">
-        <v>276.388484871594</v>
+        <v>355.7320854620899</v>
       </c>
       <c r="S20">
-        <v>0.00353321811069643</v>
+        <v>0.005363597174242284</v>
       </c>
       <c r="T20">
-        <v>0.003030039263124578</v>
+        <v>0.003468263430433104</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>35.4893295</v>
+        <v>54.13637749999999</v>
       </c>
       <c r="H21">
-        <v>70.97865899999999</v>
+        <v>108.272755</v>
       </c>
       <c r="I21">
-        <v>0.5034649631654063</v>
+        <v>0.616617281335869</v>
       </c>
       <c r="J21">
-        <v>0.4311468887313926</v>
+        <v>0.5916472862074882</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.1515973333333333</v>
+        <v>0.008696333333333334</v>
       </c>
       <c r="N21">
-        <v>0.454792</v>
+        <v>0.026089</v>
       </c>
       <c r="O21">
-        <v>0.000819637569049068</v>
+        <v>4.604715302246609E-05</v>
       </c>
       <c r="P21">
-        <v>0.0008208119320634572</v>
+        <v>4.654818822636402E-05</v>
       </c>
       <c r="Q21">
-        <v>5.380087713988</v>
+        <v>0.4707879841991666</v>
       </c>
       <c r="R21">
-        <v>32.280526283928</v>
+        <v>2.824727905195</v>
       </c>
       <c r="S21">
-        <v>0.0004126587985102722</v>
+        <v>2.839347030996979E-05</v>
       </c>
       <c r="T21">
-        <v>0.0003538905107427628</v>
+        <v>2.754010924200362E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.836560333333333</v>
+        <v>0.7598186666666665</v>
       </c>
       <c r="H22">
-        <v>29.509681</v>
+        <v>2.279456</v>
       </c>
       <c r="I22">
-        <v>0.1395451409104803</v>
+        <v>0.008654389934905506</v>
       </c>
       <c r="J22">
-        <v>0.1792511626713868</v>
+        <v>0.01245589397285934</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.5025675000000001</v>
+        <v>4.4557</v>
       </c>
       <c r="N22">
-        <v>1.005135</v>
+        <v>8.9114</v>
       </c>
       <c r="O22">
-        <v>0.002717219326525538</v>
+        <v>0.02359296635235565</v>
       </c>
       <c r="P22">
-        <v>0.001814075008651434</v>
+        <v>0.0158997862915566</v>
       </c>
       <c r="Q22">
-        <v>4.9435355353225</v>
+        <v>3.385524033066666</v>
       </c>
       <c r="R22">
-        <v>29.661213211935</v>
+        <v>20.3131441984</v>
       </c>
       <c r="S22">
-        <v>0.0003791747538046865</v>
+        <v>0.000204182730534391</v>
       </c>
       <c r="T22">
-        <v>0.0003251750544738756</v>
+        <v>0.0001980460522387515</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.836560333333333</v>
+        <v>0.7598186666666665</v>
       </c>
       <c r="H23">
-        <v>29.509681</v>
+        <v>2.279456</v>
       </c>
       <c r="I23">
-        <v>0.1395451409104803</v>
+        <v>0.008654389934905506</v>
       </c>
       <c r="J23">
-        <v>0.1792511626713868</v>
+        <v>0.01245589397285934</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>548.139267</v>
       </c>
       <c r="O23">
-        <v>0.9878703589865653</v>
+        <v>0.9674672354314614</v>
       </c>
       <c r="P23">
-        <v>0.9892857631315353</v>
+        <v>0.9779941651491894</v>
       </c>
       <c r="Q23">
-        <v>1797.268323638203</v>
+        <v>138.828815666528</v>
       </c>
       <c r="R23">
-        <v>16175.41491274383</v>
+        <v>1249.459340998752</v>
       </c>
       <c r="S23">
-        <v>0.137852508446067</v>
+        <v>0.008372838704668895</v>
       </c>
       <c r="T23">
-        <v>0.1773306232555779</v>
+        <v>0.01218179162717339</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.836560333333333</v>
+        <v>0.7598186666666665</v>
       </c>
       <c r="H24">
-        <v>29.509681</v>
+        <v>2.279456</v>
       </c>
       <c r="I24">
-        <v>0.1395451409104803</v>
+        <v>0.008654389934905506</v>
       </c>
       <c r="J24">
-        <v>0.1792511626713868</v>
+        <v>0.01245589397285934</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.291303</v>
+        <v>0.03688933333333334</v>
       </c>
       <c r="N24">
-        <v>0.582606</v>
+        <v>0.110668</v>
       </c>
       <c r="O24">
-        <v>0.001574980756763756</v>
+        <v>0.0001953293085472911</v>
       </c>
       <c r="P24">
-        <v>0.001051491575251461</v>
+        <v>0.0001974546703451743</v>
       </c>
       <c r="Q24">
-        <v>2.865419534781</v>
+        <v>0.02802920406755555</v>
       </c>
       <c r="R24">
-        <v>17.192517208686</v>
+        <v>0.252262836608</v>
       </c>
       <c r="S24">
-        <v>0.0002197809116338931</v>
+        <v>1.690456001883728E-06</v>
       </c>
       <c r="T24">
-        <v>0.0001884810874029924</v>
+        <v>2.459474438265385E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>9.836560333333333</v>
+        <v>0.7598186666666665</v>
       </c>
       <c r="H25">
-        <v>29.509681</v>
+        <v>2.279456</v>
       </c>
       <c r="I25">
-        <v>0.1395451409104803</v>
+        <v>0.008654389934905506</v>
       </c>
       <c r="J25">
-        <v>0.1792511626713868</v>
+        <v>0.01245589397285934</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.297988666666667</v>
+        <v>1.642759</v>
       </c>
       <c r="N25">
-        <v>3.893966</v>
+        <v>3.285518</v>
       </c>
       <c r="O25">
-        <v>0.007017803361096332</v>
+        <v>0.008698421754613059</v>
       </c>
       <c r="P25">
-        <v>0.007027858352498311</v>
+        <v>0.005862045700682549</v>
       </c>
       <c r="Q25">
-        <v>12.76774383164956</v>
+        <v>1.248198953034666</v>
       </c>
       <c r="R25">
-        <v>114.909694484846</v>
+        <v>7.489193718207998</v>
       </c>
       <c r="S25">
-        <v>0.0009793003589062296</v>
+        <v>7.527953368268635E-05</v>
       </c>
       <c r="T25">
-        <v>0.001259751780775139</v>
+        <v>7.301701971175779E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.836560333333333</v>
+        <v>0.7598186666666665</v>
       </c>
       <c r="H26">
-        <v>29.509681</v>
+        <v>2.279456</v>
       </c>
       <c r="I26">
-        <v>0.1395451409104803</v>
+        <v>0.008654389934905506</v>
       </c>
       <c r="J26">
-        <v>0.1792511626713868</v>
+        <v>0.01245589397285934</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.1515973333333333</v>
+        <v>0.008696333333333334</v>
       </c>
       <c r="N26">
-        <v>0.454792</v>
+        <v>0.026089</v>
       </c>
       <c r="O26">
-        <v>0.000819637569049068</v>
+        <v>4.604715302246609E-05</v>
       </c>
       <c r="P26">
-        <v>0.0008208119320634572</v>
+        <v>4.654818822636402E-05</v>
       </c>
       <c r="Q26">
-        <v>1.491196315705778</v>
+        <v>0.006607636398222221</v>
       </c>
       <c r="R26">
-        <v>13.420766841352</v>
+        <v>0.05946872758399999</v>
       </c>
       <c r="S26">
-        <v>0.0001143764400684757</v>
+        <v>3.985100176486842E-07</v>
       </c>
       <c r="T26">
-        <v>0.0001471314931569221</v>
+        <v>5.797992971762897E-07</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7.349149999999999</v>
+        <v>3.515855333333333</v>
       </c>
       <c r="H27">
-        <v>22.04745</v>
+        <v>10.547566</v>
       </c>
       <c r="I27">
-        <v>0.1042578032940027</v>
+        <v>0.04004584823227627</v>
       </c>
       <c r="J27">
-        <v>0.1339232046066261</v>
+        <v>0.05763627978242885</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.5025675000000001</v>
+        <v>4.4557</v>
       </c>
       <c r="N27">
-        <v>1.005135</v>
+        <v>8.9114</v>
       </c>
       <c r="O27">
-        <v>0.002717219326525538</v>
+        <v>0.02359296635235565</v>
       </c>
       <c r="P27">
-        <v>0.001814075008651434</v>
+        <v>0.0158997862915566</v>
       </c>
       <c r="Q27">
-        <v>3.693443942625</v>
+        <v>15.66559660873333</v>
       </c>
       <c r="R27">
-        <v>22.16066365575</v>
+        <v>93.9935796524</v>
       </c>
       <c r="S27">
-        <v>0.0002832913180515619</v>
+        <v>0.0009448003498956349</v>
       </c>
       <c r="T27">
-        <v>0.000242946738555393</v>
+        <v>0.0009164045311809833</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>7.349149999999999</v>
+        <v>3.515855333333333</v>
       </c>
       <c r="H28">
-        <v>22.04745</v>
+        <v>10.547566</v>
       </c>
       <c r="I28">
-        <v>0.1042578032940027</v>
+        <v>0.04004584823227627</v>
       </c>
       <c r="J28">
-        <v>0.1339232046066261</v>
+        <v>0.05763627978242885</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2179,22 +2179,22 @@
         <v>548.139267</v>
       </c>
       <c r="O28">
-        <v>0.9878703589865653</v>
+        <v>0.9674672354314614</v>
       </c>
       <c r="P28">
-        <v>0.9892857631315353</v>
+        <v>0.9779941651491894</v>
       </c>
       <c r="Q28">
-        <v>1342.78589802435</v>
+        <v>642.3927884304579</v>
       </c>
       <c r="R28">
-        <v>12085.07308221915</v>
+        <v>5781.535095874122</v>
       </c>
       <c r="S28">
-        <v>0.1029931935671971</v>
+        <v>0.0387430460797882</v>
       </c>
       <c r="T28">
-        <v>0.1324883196702868</v>
+        <v>0.0563679453281216</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>7.349149999999999</v>
+        <v>3.515855333333333</v>
       </c>
       <c r="H29">
-        <v>22.04745</v>
+        <v>10.547566</v>
       </c>
       <c r="I29">
-        <v>0.1042578032940027</v>
+        <v>0.04004584823227627</v>
       </c>
       <c r="J29">
-        <v>0.1339232046066261</v>
+        <v>0.05763627978242885</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>0.291303</v>
+        <v>0.03688933333333334</v>
       </c>
       <c r="N29">
-        <v>0.582606</v>
+        <v>0.110668</v>
       </c>
       <c r="O29">
-        <v>0.001574980756763756</v>
+        <v>0.0001953293085472911</v>
       </c>
       <c r="P29">
-        <v>0.001051491575251461</v>
+        <v>0.0001974546703451743</v>
       </c>
       <c r="Q29">
-        <v>2.140829442449999</v>
+        <v>0.1296975593431111</v>
       </c>
       <c r="R29">
-        <v>12.8449766547</v>
+        <v>1.167278034088</v>
       </c>
       <c r="S29">
-        <v>0.0001642040339305151</v>
+        <v>7.822127845400283E-06</v>
       </c>
       <c r="T29">
-        <v>0.000140819121374545</v>
+        <v>1.138055262436172E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7.349149999999999</v>
+        <v>3.515855333333333</v>
       </c>
       <c r="H30">
-        <v>22.04745</v>
+        <v>10.547566</v>
       </c>
       <c r="I30">
-        <v>0.1042578032940027</v>
+        <v>0.04004584823227627</v>
       </c>
       <c r="J30">
-        <v>0.1339232046066261</v>
+        <v>0.05763627978242885</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.297988666666667</v>
+        <v>1.642759</v>
       </c>
       <c r="N30">
-        <v>3.893966</v>
+        <v>3.285518</v>
       </c>
       <c r="O30">
-        <v>0.007017803361096332</v>
+        <v>0.008698421754613059</v>
       </c>
       <c r="P30">
-        <v>0.007027858352498311</v>
+        <v>0.005862045700682549</v>
       </c>
       <c r="Q30">
-        <v>9.539113409633332</v>
+        <v>5.775702991531332</v>
       </c>
       <c r="R30">
-        <v>85.8520206867</v>
+        <v>34.65421794918799</v>
       </c>
       <c r="S30">
-        <v>0.0007316607623771721</v>
+        <v>0.0003483356774455648</v>
       </c>
       <c r="T30">
-        <v>0.0009411933120880174</v>
+        <v>0.0003378665061019236</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,7 +2332,7 @@
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7.349149999999999</v>
+        <v>3.515855333333333</v>
       </c>
       <c r="H31">
-        <v>22.04745</v>
+        <v>10.547566</v>
       </c>
       <c r="I31">
-        <v>0.1042578032940027</v>
+        <v>0.04004584823227627</v>
       </c>
       <c r="J31">
-        <v>0.1339232046066261</v>
+        <v>0.05763627978242885</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.1515973333333333</v>
+        <v>0.008696333333333334</v>
       </c>
       <c r="N31">
-        <v>0.454792</v>
+        <v>0.026089</v>
       </c>
       <c r="O31">
-        <v>0.000819637569049068</v>
+        <v>4.604715302246609E-05</v>
       </c>
       <c r="P31">
-        <v>0.0008208119320634572</v>
+        <v>4.654818822636402E-05</v>
       </c>
       <c r="Q31">
-        <v>1.114111542266667</v>
+        <v>0.03057504993044444</v>
       </c>
       <c r="R31">
-        <v>10.0270038804</v>
+        <v>0.275175449374</v>
       </c>
       <c r="S31">
-        <v>8.545361244629226E-05</v>
+        <v>1.843997301466079E-06</v>
       </c>
       <c r="T31">
-        <v>0.0001099257643212944</v>
+        <v>2.682864399979877E-06</v>
       </c>
     </row>
   </sheetData>
